--- a/data/income_statement/2digits/size/42_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/42_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>42-Civil engineering</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>42-Civil engineering</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1457 +841,1647 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>2388993.80962</v>
+        <v>2596341.58575</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>2807725.5397</v>
+        <v>3072948.99958</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>3571492.72524</v>
+        <v>3881155.05711</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>4126251.99451</v>
+        <v>4530078.45778</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>6605133.34797</v>
+        <v>7139233.48373</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>6077605.2875</v>
+        <v>6867987.42568</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>6319252.98828</v>
+        <v>7665996.451</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>7290211.13008</v>
+        <v>8156226.948280001</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>9701505.500119999</v>
+        <v>10938455.36015</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>14570388.21846</v>
+        <v>15841761.38277</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>14662269.98976</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>17126530.19161</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>20691135.607</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>2274157.25538</v>
+        <v>2464954.04579</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>2676244.19887</v>
+        <v>2931983.71319</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>3432840.77325</v>
+        <v>3720501.98048</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>3755134.82769</v>
+        <v>4105899.35027</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>5627377.860850001</v>
+        <v>6119033.05288</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>5648256.29324</v>
+        <v>6355772.95123</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>5750687.38148</v>
+        <v>7000370.912610001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>7085321.11976</v>
+        <v>7884531.58275</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>9238994.50155</v>
+        <v>10349048.5143</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>14079160.77791</v>
+        <v>15272648.8642</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>13761048.14552</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>16000042.57942</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>18283821.973</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>79756.38638</v>
+        <v>94719.93797999999</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>62891.52399</v>
+        <v>65164.35758</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>56273.19663</v>
+        <v>66514.63114</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>289577.66785</v>
+        <v>322027.85819</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>846890.3822100001</v>
+        <v>880773.4741</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>273214.08871</v>
+        <v>320148.40267</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>418244.7113699999</v>
+        <v>465864.53488</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>100989.69254</v>
+        <v>126464.53827</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>336409.7276099999</v>
+        <v>380200.02324</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>276528.83538</v>
+        <v>314887.45691</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>621145.58115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>739743.3444600001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2001923.645</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>35080.16786</v>
+        <v>36667.60198000001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>68589.81684</v>
+        <v>75800.92881</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>82378.75536</v>
+        <v>94138.44549</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>81539.49897</v>
+        <v>102151.24932</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>130865.10491</v>
+        <v>139426.95675</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>156134.90555</v>
+        <v>192066.07178</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>150320.89543</v>
+        <v>199761.00351</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>103900.31778</v>
+        <v>145230.82726</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>126101.27096</v>
+        <v>209206.82261</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>214698.60517</v>
+        <v>254225.06166</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>280076.26309</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>386744.26773</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>405389.989</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>5978.57394</v>
+        <v>6290.424789999999</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>5435.15228</v>
+        <v>6206.614439999999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>5019.001609999999</v>
+        <v>5473.51177</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>4445.45361</v>
+        <v>10342.00764</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>8875.152550000001</v>
+        <v>8665.26547</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>12358.90197</v>
+        <v>16931.22222</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>11378.29059</v>
+        <v>27866.74896</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>13024.85757</v>
+        <v>17946.19472</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>16163.49615</v>
+        <v>33201.90936</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>48189.15584000001</v>
+        <v>55774.57612999999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>285827.10954</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>296397.91941</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>769066.519</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>4641.12988</v>
+        <v>4949.23921</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>2868.96191</v>
+        <v>3550.93885</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>4279.43102</v>
+        <v>4571.8927</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>4145.55724</v>
+        <v>6448.58508</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>7103.9568</v>
+        <v>6659.82352</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>9568.812539999999</v>
+        <v>13903.25522</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>9474.780959999998</v>
+        <v>23897.68426000001</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>11767.77841</v>
+        <v>15193.40599</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>13219.40765</v>
+        <v>30127.3492</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>40357.44856999999</v>
+        <v>47103.04958</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>277538.23245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>288047.08275</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>763409.926</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>769.52768</v>
+        <v>773.2692</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>2365.19921</v>
+        <v>2455.76048</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>276.88074</v>
+        <v>426.76905</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>155.15175</v>
+        <v>215.85154</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>388.95469</v>
+        <v>482.41397</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>648.86924</v>
+        <v>864.9322099999999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>401.17375</v>
+        <v>847.8949700000001</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>223.79264</v>
+        <v>406.06789</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>672.3304600000001</v>
+        <v>714.4275100000001</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>1387.85934</v>
+        <v>1832.51569</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>1499.85212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1878.70849</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>391.972</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>567.9163800000001</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>200.99116</v>
+        <v>199.91511</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>462.68985</v>
+        <v>474.85002</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>144.74462</v>
+        <v>3677.57102</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>1382.24106</v>
+        <v>1523.02798</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>2141.22019</v>
+        <v>2163.03479</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1502.33588</v>
+        <v>3121.16973</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1033.28652</v>
+        <v>2346.72084</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>2271.75804</v>
+        <v>2360.13265</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>6443.84793</v>
+        <v>6839.010859999999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>6789.024969999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>6472.12817</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>5264.621</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>2383015.23568</v>
+        <v>2590051.16096</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>2802290.38742</v>
+        <v>3066742.38514</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>3566473.723629999</v>
+        <v>3875681.54534</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>4121806.5409</v>
+        <v>4519736.450139999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>6596258.19542</v>
+        <v>7130568.21826</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>6065246.385530001</v>
+        <v>6851056.20346</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>6307874.697690001</v>
+        <v>7638129.70204</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>7277186.272510001</v>
+        <v>8138280.753559999</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>9685342.003969999</v>
+        <v>10905253.45079</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>14522199.06262</v>
+        <v>15785986.80664</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>14376442.88022</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>16830132.2722</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>19922069.088</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>2066259.7046</v>
+        <v>2234868.76924</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>2442832.71705</v>
+        <v>2673085.563180001</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>3090658.49783</v>
+        <v>3363321.74592</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>3622318.96592</v>
+        <v>3956582.87373</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>5910938.78393</v>
+        <v>6362611.77333</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>5408123.31476</v>
+        <v>6186594.98432</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>5622552.052289999</v>
+        <v>6948081.402860001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>6533181.89473</v>
+        <v>7235036.97817</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>8947353.792059999</v>
+        <v>9959354.402380001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>13418385.52317</v>
+        <v>14557037.66032</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>13005924.61704</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>15213082.66549</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>18173228.7</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>148088.85009</v>
+        <v>160416.86212</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>190119.40135</v>
+        <v>221202.77321</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>190207.26587</v>
+        <v>210988.13687</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>250199.57117</v>
+        <v>268143.22425</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>311518.1941799999</v>
+        <v>377516.91958</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>361757.2505499999</v>
+        <v>395030.80071</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>414985.20001</v>
+        <v>546979.51601</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>479229.4561</v>
+        <v>580760.7473399999</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>516150.74944</v>
+        <v>618750.27248</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1113732.6369</v>
+        <v>1209975.27079</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1020036.74022</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1178234.96128</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1390812.727</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>314619.12304</v>
+        <v>324964.5889</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>533497.60725</v>
+        <v>559875.86819</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>559219.4446700001</v>
+        <v>586836.20926</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>606134.8740800001</v>
+        <v>649011.2745599999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>820420.3029599999</v>
+        <v>887381.9805600001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1104889.46381</v>
+        <v>1194031.08574</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1324220.71113</v>
+        <v>1549332.64957</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1584419.46746</v>
+        <v>1694475.14481</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>2673463.89272</v>
+        <v>2853671.35855</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3433781.8528</v>
+        <v>3638087.79105</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2099909.71279</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2448542.75405</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3325834.973</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>1567753.06793</v>
+        <v>1712791.0704</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1710692.46787</v>
+        <v>1881884.20798</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>2328566.54052</v>
+        <v>2547659.88099</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2749622.15662</v>
+        <v>3021623.73822</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>4764328.165779999</v>
+        <v>5080628.596650001</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>3919765.47543</v>
+        <v>4565907.70061</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>3847219.88119</v>
+        <v>4799168.44007</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>4448379.679889999</v>
+        <v>4920363.007680001</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>5713008.35016</v>
+        <v>6402185.274180001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>8781541.966600001</v>
+        <v>9603402.991700001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>9783000.958799999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>11437972.52709</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>13337204.682</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>35798.66354000001</v>
+        <v>36696.24782</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>8523.24058</v>
+        <v>10122.7138</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>12665.24677</v>
+        <v>17837.5188</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>16362.36405</v>
+        <v>17804.6367</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>14672.12101</v>
+        <v>17084.27654</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>21711.12497</v>
+        <v>31625.39726</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>36126.25996</v>
+        <v>52600.79721</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>21153.29128</v>
+        <v>39438.07834</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>44730.79974</v>
+        <v>84747.49717</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>89329.06687</v>
+        <v>105571.60678</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>102977.20523</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>148332.42307</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>119376.318</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>316755.53108</v>
+        <v>355182.39172</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>359457.67037</v>
+        <v>393656.82196</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>475815.2258</v>
+        <v>512359.7994199999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>499487.57498</v>
+        <v>563153.5764100001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>685319.4114899999</v>
+        <v>767956.44493</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>657123.07077</v>
+        <v>664461.2191400001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>685322.6453999999</v>
+        <v>690048.2991800001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>744004.3777800001</v>
+        <v>903243.77539</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>737988.2119100001</v>
+        <v>945899.04841</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1103813.53945</v>
+        <v>1228949.14632</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1370518.26318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1617049.60671</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1748840.388</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>215925.19851</v>
+        <v>251898.72908</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>251423.93875</v>
+        <v>274557.20823</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>353451.82591</v>
+        <v>403041.4985</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>358825.62073</v>
+        <v>459044.87424</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>482375.6731999999</v>
+        <v>582059.5201699999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>472639.77187</v>
+        <v>551052.7615799999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>505497.18355</v>
+        <v>658081.80899</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>538676.23928</v>
+        <v>676026.91951</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>544000.57935</v>
+        <v>700350.4740999999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>847376.89576</v>
+        <v>903268.8128899999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>930189.7066</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1066877.2959</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1090785.092</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>2152.18259</v>
+        <v>2254.53935</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>624.0136799999999</v>
+        <v>1423.52932</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>1898.65103</v>
+        <v>1789.23842</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>2496.35568</v>
+        <v>3276.43004</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>4425.84618</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>4391.897779999999</v>
+        <v>3403.41411</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>2868.22428</v>
+        <v>3062.17469</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>1669.20712</v>
+        <v>1828.5305</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>2145.59532</v>
+        <v>2098.02611</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>2011.28937</v>
+        <v>3802.61908</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>915.68808</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>6081.113449999999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>10370.147</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>16106.36134</v>
+        <v>18806.75257</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>20701.39252</v>
+        <v>22542.67652</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>49242.14423000001</v>
+        <v>51684.17122</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>33599.47773000001</v>
+        <v>35640.78717</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>46358.50030000001</v>
+        <v>52412.04724</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>59620.3306</v>
+        <v>62284.97502</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>70740.76573</v>
+        <v>78253.2938</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>82437.38456000001</v>
+        <v>87081.65893999999</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>58324.58689</v>
+        <v>65771.86578000001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>84390.50899000002</v>
+        <v>95226.61264000001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>88286.19217000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>109898.40585</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>110027.101</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>197666.65458</v>
+        <v>230837.43716</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>230098.53255</v>
+        <v>250591.00239</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>302311.03065</v>
+        <v>349568.08886</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>322729.78732</v>
+        <v>420127.6570299999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>431591.32672</v>
+        <v>525221.6267500001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>408627.54349</v>
+        <v>485364.37245</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>431888.1935399999</v>
+        <v>576766.3405</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>454569.6476</v>
+        <v>587116.7300699999</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>483530.39714</v>
+        <v>632480.58221</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>760975.0974000001</v>
+        <v>804239.58117</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>840987.8263499999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>950897.7766</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>970387.844</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>100830.33257</v>
+        <v>103283.66264</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>108033.73162</v>
+        <v>119099.61373</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>122363.39989</v>
+        <v>109318.30092</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>140661.95425</v>
+        <v>104108.70217</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>202943.73829</v>
+        <v>185896.92476</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>184483.2989</v>
+        <v>113408.45756</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>179825.46185</v>
+        <v>31966.49018999998</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>205328.1385</v>
+        <v>227216.85588</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>193987.63256</v>
+        <v>245548.57431</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>256436.64369</v>
+        <v>325680.3334299999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>440328.55658</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>550172.3108099999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>658055.296</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>27833.75634</v>
+        <v>89246.26918999999</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>40988.44123999999</v>
+        <v>75803.74041999999</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>41030.93935</v>
+        <v>103671.87985</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>33489.32307</v>
+        <v>214595.96551</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>63922.10596</v>
+        <v>240470.23967</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>81654.84477</v>
+        <v>356003.09932</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>87729.40662000001</v>
+        <v>433870.81598</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>139863.771</v>
+        <v>404395.70962</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>125059.9653</v>
+        <v>591682.52309</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>651338.90113</v>
+        <v>1470765.99968</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>453744.42595</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1179030.93644</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1868423.801</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>742.1830600000001</v>
+        <v>4759.806060000001</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>2897.31407</v>
+        <v>4301.158869999999</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>2612.8317</v>
+        <v>1294.99224</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>4497.66526</v>
+        <v>11350.03467</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>10900.48972</v>
+        <v>22447.22506</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>4073.15969</v>
+        <v>71686.94269</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>7487.57877</v>
+        <v>28605.64223</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>12852.64432</v>
+        <v>49630.14753</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>11026.45965</v>
+        <v>79498.98373000001</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>20270.69128</v>
+        <v>45643.59103</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>38445.13895</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>98556.22110000001</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>86874.389</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>3051.29325</v>
+        <v>2948.06494</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>2805.64136</v>
+        <v>4282.04851</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>1547.46128</v>
+        <v>8269.662179999999</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>3357.67625</v>
+        <v>27086.35915</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>1028.03168</v>
+        <v>8074.082399999999</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>3099.88538</v>
+        <v>6895.94549</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>2592.79967</v>
+        <v>16980.6152</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>3162.3591</v>
+        <v>31762.87417</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>6567.90851</v>
+        <v>60071.49372999999</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>13265.99918</v>
+        <v>124349.35725</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>15220.18732</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>62673.84</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>18619.846</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>6083.20302</v>
+        <v>17383.13099</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>5235.72036</v>
+        <v>14826.48982</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>5690.531480000001</v>
+        <v>15882.79673</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>7223.08964</v>
+        <v>43229.99565</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>11028.60859</v>
+        <v>26128.7274</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>11909.25397</v>
+        <v>45426.99425</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>15586.70057</v>
+        <v>51086.55156</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>21357.34736</v>
+        <v>59675.1127</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>25400.51429</v>
+        <v>58166.85091</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>58837.60077</v>
+        <v>118051.98992</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>61547.5512</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>184490.94677</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>184120.458</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>231.02182</v>
+        <v>230.99722</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>37.38253</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>102.25605</v>
+        <v>605.99834</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>2.07567</v>
+        <v>12.62545</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>86.46894</v>
+        <v>189.05516</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>371.6157</v>
+        <v>1635.80408</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>73.49275</v>
+        <v>1065.59804</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>773.0177</v>
+        <v>1220.59765</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>429.18159</v>
+        <v>360.52787</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>696.6045</v>
+        <v>123.63625</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>43.8937</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>51.38424</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>543.953</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>83.91573000000001</v>
+        <v>378.65029</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>1860.22681</v>
+        <v>1355.67227</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>145.80581</v>
+        <v>102.46287</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>230.61471</v>
+        <v>175.04284</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>186.99867</v>
+        <v>629.47785</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>4057.04449</v>
+        <v>1065.73595</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>3881.4964</v>
+        <v>937.02225</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>3671.49554</v>
+        <v>1369.09567</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>4011.58052</v>
+        <v>675.93003</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>11841.08611</v>
+        <v>494.20452</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>13221.01269</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1188.14846</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>5151.943</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>413.78868</v>
+        <v>879.8116100000001</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>162.63407</v>
+        <v>188.07915</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>728.9494999999999</v>
+        <v>699.4887199999999</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>278.00705</v>
+        <v>564.5823300000001</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>511.44627</v>
+        <v>563.0931999999999</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>2211.04469</v>
+        <v>3944.89229</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>2011.79152</v>
+        <v>1482.71287</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>714.2566</v>
+        <v>1556.30557</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>530.9326799999999</v>
+        <v>1316.35699</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>3810.02509</v>
+        <v>3254.8972</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>2763.84386</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>11544.77159</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>7600.651</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>9795.21731</v>
+        <v>44232.50497000001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>12174.41425</v>
+        <v>34761.68434000001</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>15769.74473</v>
+        <v>56267.02267</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>8964.275089999999</v>
+        <v>87869.60443000001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>24806.05219</v>
+        <v>142277.36215</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>38229.64147</v>
+        <v>156921.70268</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>38309.19956</v>
+        <v>292410.2148</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>63963.3398</v>
+        <v>195315.12373</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>63644.55747</v>
+        <v>309116.8409</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>458524.98282</v>
+        <v>1088429.55092</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>259709.9027</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>695719.3640599999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1371414.621</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>26.31702</v>
+        <v>1837.53919</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>9.17015</v>
+        <v>219.36514</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>46.65557</v>
+        <v>119.29678</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>17.8083</v>
+        <v>32.34446</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>49.83664999999999</v>
+        <v>577.6650100000001</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>114.52691</v>
+        <v>11.47004</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>67.99361</v>
+        <v>696.6375300000001</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>230.88737</v>
+        <v>29.13699</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>12.65342</v>
+        <v>81.55508</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>71.16413</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>66.34714</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>6.534</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>1484.331</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>66.49892999999999</v>
+        <v>68.83813000000001</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>3014.15376</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>3.1616</v>
+        <v>3.12177</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>191.78811</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>3539.14771</v>
+        <v>3607.91765</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>105.64479</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>228.09042</v>
+        <v>228.91</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>5463.44996</v>
+        <v>5453.25201</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>245.17751</v>
+        <v>377.54473</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>3345.2372</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>510.57575</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>501.67032</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>60.789</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>7340.31752</v>
+        <v>16526.92579</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>12791.78388</v>
+        <v>12817.70603</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>14383.54163</v>
+        <v>20427.03755</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>8726.322990000001</v>
+        <v>44083.58842</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>11785.02554</v>
+        <v>35975.63379000001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>17483.02768</v>
+        <v>68307.96706</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>17490.26335</v>
+        <v>40376.9115</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>27674.97325</v>
+        <v>58384.06359999999</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>13190.99966</v>
+        <v>82016.43912000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>80675.51005000001</v>
+        <v>87002.37126</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>62215.97264</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>124298.0559</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>192552.82</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>17196.3774</v>
+        <v>72707.5607</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>20659.46764</v>
+        <v>41451.58079</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>30498.01192</v>
+        <v>77771.59236</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>19288.85072</v>
+        <v>127560.55745</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>42185.26744</v>
+        <v>130067.64194</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>56294.15223</v>
+        <v>227916.75311</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>57506.32430000001</v>
+        <v>360279.95636</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>102385.43269</v>
+        <v>265026.58192</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>116914.75645</v>
+        <v>405833.26657</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>686640.20525</v>
+        <v>1452679.04217</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>341307.99105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>867752.35026</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1841570.053</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>513.1937300000001</v>
+        <v>477.54494</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>459.60611</v>
+        <v>483.23754</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>500.66276</v>
+        <v>585.0420600000001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>243.08064</v>
+        <v>366.47026</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1462.68048</v>
+        <v>1606.16101</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>432.26885</v>
+        <v>540.35369</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>943.4659499999999</v>
+        <v>1261.35692</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>860.87861</v>
+        <v>682.01599</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>723.66652</v>
+        <v>855.70187</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>947.4600499999999</v>
+        <v>896.52018</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1059.92645</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1116.27914</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>2751.325</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>2254.5073</v>
+        <v>2247.62249</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>462.96275</v>
+        <v>574.7060300000001</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1714.23777</v>
+        <v>1638.60987</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1178.02189</v>
+        <v>1869.77785</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>3538.04079</v>
+        <v>4782.4926</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>2748.159520000001</v>
+        <v>15821.19393</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1488.33279</v>
+        <v>1813.26503</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>2547.01255</v>
+        <v>9656.82525</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>8384.105030000001</v>
+        <v>7953.795959999999</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>8673.445689999999</v>
+        <v>8234.5406</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>10653.48271</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>8193.609899999999</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>12870.548</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>55.79799000000001</v>
+        <v>3781.43465</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>157.62867</v>
+        <v>203.91294</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>806.8481</v>
+        <v>705.5155</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>696.81423</v>
+        <v>33495.70008</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>356.88444</v>
+        <v>310.29799</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>97.44461</v>
+        <v>7990.89132</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>83.47952000000001</v>
+        <v>2178.73811</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>749.36321</v>
+        <v>152.79775</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>62.82891</v>
+        <v>2862.84776</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>245.03902</v>
+        <v>213.87878</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>2543.99095</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>23840.76002</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>3245.884</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>10189.74348</v>
+        <v>43784.18295</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>12074.2714</v>
+        <v>31493.33662</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>20797.95644</v>
+        <v>62854.24845000001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>8305.950989999999</v>
+        <v>77809.67001999999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>28790.41887</v>
+        <v>107696.80254</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>37321.8543</v>
+        <v>162318.59351</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>42551.74656</v>
+        <v>318390.56215</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>78316.51873</v>
+        <v>217013.96617</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>94901.76147</v>
+        <v>293460.98952</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>555100.08138</v>
+        <v>1320888.49294</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>284214.36248</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>732679.06527</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1661920.544</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>18.78339</v>
+        <v>50.5249</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>55.06046</v>
+        <v>55.06045999999999</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>0</v>
+        <v>354.40112</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>20.94792</v>
+        <v>1.85787</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>30.067</v>
+        <v>197.05759</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>219.0373</v>
+        <v>1232.02234</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>70.80141</v>
+        <v>317.4182499999999</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>114.99138</v>
+        <v>10.86491</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>86.21306999999999</v>
+        <v>47700.27744</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>194.7718</v>
+        <v>164.12291</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>126.11183</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>430.20376</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>2551.205</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>138.61891</v>
@@ -2405,19 +2496,19 @@
         <v>131.55743</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>1249.84766</v>
+        <v>1213.11084</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>0.00047</v>
+        <v>0.00042</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>463.68281</v>
+        <v>463.68684</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>5058.59114</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>0</v>
+        <v>29.6013</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>5.78705</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>21.225</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>4025.732600000001</v>
+        <v>22227.63186</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>4468.674599999999</v>
+        <v>5660.063550000001</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>6678.306850000001</v>
+        <v>11633.77536</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>8712.477620000001</v>
+        <v>13885.52394</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>6757.3282</v>
+        <v>14261.71937</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>15475.38718</v>
+        <v>40013.69790000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>11904.81526</v>
+        <v>35854.92906</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>14738.07707</v>
+        <v>32451.52071</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>12756.18145</v>
+        <v>52970.05272</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>121473.62026</v>
+        <v>122275.69971</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>42708.86663</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>101491.18217</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>158209.322</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>20412.18018</v>
+        <v>40655.52866</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>22661.49799</v>
+        <v>29872.01612</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>25736.32793</v>
+        <v>37458.99349</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>33428.2027</v>
+        <v>56856.80248000001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>45644.79652</v>
+        <v>68142.26014</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>53290.38036</v>
+        <v>133454.50302</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>53631.4633</v>
+        <v>155682.95286</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>56562.7805</v>
+        <v>177296.25288</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>77482.36490999999</v>
+        <v>234968.35331</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>292498.64194</v>
+        <v>765584.51818</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>240417.07653</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>584003.1625</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>675412.667</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>19911.80884</v>
+        <v>40264.82179</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>22309.51671</v>
+        <v>28083.07062</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>24154.94615</v>
+        <v>34594.52944</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>31958.79029</v>
+        <v>53878.76185999999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>42173.68044</v>
+        <v>62646.43556999999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>51092.30387999999</v>
+        <v>98027.89013</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>50460.6019</v>
+        <v>113060.24744</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>52491.33251000001</v>
+        <v>128297.12008</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>72399.72065</v>
+        <v>162383.98925</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>219441.52896</v>
+        <v>392018.47437</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>221836.68358</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>427742.59903</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>413276.345</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>500.37134</v>
+        <v>390.70687</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>351.98128</v>
+        <v>1788.9455</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>1581.38178</v>
+        <v>2864.46405</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>1469.41241</v>
+        <v>2978.04062</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>3471.11608</v>
+        <v>5495.824570000001</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>2198.07648</v>
+        <v>35426.61289</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>3170.8614</v>
+        <v>42622.70541999999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>4071.44799</v>
+        <v>48999.1328</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>5082.64426</v>
+        <v>72584.36406000001</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>73057.11298000001</v>
+        <v>373566.04381</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>18580.39295</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>156260.56347</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>262136.322</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>91055.53133000001</v>
+        <v>79166.84247</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>105701.20723</v>
+        <v>123579.75724</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>107159.99939</v>
+        <v>97759.59492000002</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>121434.2239</v>
+        <v>134287.30775</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>179035.78029</v>
+        <v>228157.26235</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>156553.61108</v>
+        <v>108040.30075</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>156417.08087</v>
+        <v>-50125.60305</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>186243.69631</v>
+        <v>189289.7307</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>124650.4765</v>
+        <v>196429.47752</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-71363.30237</v>
+        <v>-421817.22724</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>312347.91495</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>277447.73449</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>9496.377</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>12426.15021</v>
+        <v>32021.38456</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>18965.50587</v>
+        <v>28821.78325</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>29790.17976</v>
+        <v>43012.42864</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>30435.98487</v>
+        <v>57850.15909</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>35267.43773000001</v>
+        <v>136952.8918</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>45164.93365</v>
+        <v>142364.48589</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>59573.10324</v>
+        <v>83990.00309999999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>39163.48381000001</v>
+        <v>121358.09832</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>78503.62989</v>
+        <v>134457.27725</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>165149.58782</v>
+        <v>193968.46644</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>169189.9251</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>187670.62459</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>656627.098</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>1475.82812</v>
+        <v>2321.20585</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>1120.73648</v>
+        <v>2833.62253</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>10294.91728</v>
+        <v>11346.24903</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>4830.816279999999</v>
+        <v>9037.624930000002</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>2155.88544</v>
+        <v>24457.39947</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>2064.6319</v>
+        <v>12582.89113</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>905.8957800000001</v>
+        <v>2124.20876</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1772.38016</v>
+        <v>6260.35184</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>17693.08836</v>
+        <v>6729.80142</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>6298.29549</v>
+        <v>6886.54299</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>10834.83577</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>23946.53832</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>44270.634</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>10950.32209</v>
+        <v>29700.17871</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>17844.76939</v>
+        <v>25988.16072</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>19495.26248</v>
+        <v>31666.17961</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>25605.16859</v>
+        <v>48812.53416</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>33111.55229</v>
+        <v>112495.49233</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>43100.30175</v>
+        <v>129781.59476</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>58667.20746000001</v>
+        <v>81865.79434000001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>37391.10365</v>
+        <v>115097.74648</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>60810.54153</v>
+        <v>127727.47583</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>158851.29233</v>
+        <v>187081.92345</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>158355.08933</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>163724.08627</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>612356.464</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>15162.44179</v>
+        <v>35415.06445000001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>16544.10542</v>
+        <v>25852.01384</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>141626.44942</v>
+        <v>250799.99455</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>24822.07727</v>
+        <v>35002.62127</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>35818.79604</v>
+        <v>72061.94552000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>127111.2871</v>
+        <v>188815.46979</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>47536.5386</v>
+        <v>78573.05874000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>107449.47819</v>
+        <v>198536.99802</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>116241.69416</v>
+        <v>136152.13809</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>275911.56389</v>
+        <v>324929.24515</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>126320.82864</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>223420.93092</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>237260.108</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>950.84829</v>
+        <v>1358.22499</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>512.6098999999999</v>
+        <v>909.44224</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1442.12136</v>
+        <v>2719.02211</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>793.19711</v>
+        <v>874.29026</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>397.37236</v>
+        <v>459.83027</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1351.46059</v>
+        <v>3485.3886</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>380.14194</v>
+        <v>4294.39699</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>602.51202</v>
+        <v>1966.48931</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>2246.81449</v>
+        <v>3027.99254</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>753.49139</v>
+        <v>9480.69334</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>2552.76198</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>7374.469</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>9570.334000000001</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>3436.19391</v>
+        <v>5097.563220000001</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1863.52055</v>
+        <v>3403.86214</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>11448.37427</v>
+        <v>12807.55951</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>2739.13564</v>
+        <v>4655.94884</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>4146.530839999999</v>
+        <v>7393.764740000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>3555.70893</v>
+        <v>9112.91516</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>5196.7147</v>
+        <v>10082.32007</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>5974.33607</v>
+        <v>17613.27824</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>23551.87569</v>
+        <v>24990.8835</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>34745.92015999999</v>
+        <v>26918.45816</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>11284.21336</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>25975.41856</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>57514.766</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>10775.39959</v>
+        <v>28959.27624</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>14167.97497</v>
+        <v>21538.70946</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>128735.95379</v>
+        <v>235273.41293</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>21289.74452</v>
+        <v>29472.38217</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>31274.89284</v>
+        <v>64208.35051</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>122204.11758</v>
+        <v>176217.16603</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>41959.68196000001</v>
+        <v>64196.34168</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>100872.6301</v>
+        <v>178957.23047</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>90443.00398000001</v>
+        <v>108133.26205</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>240412.15234</v>
+        <v>288530.09365</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>112483.8533</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>190071.04336</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>170175.008</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>88319.23975000001</v>
+        <v>75773.16258</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>108122.60768</v>
+        <v>126549.52665</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-4676.270269999996</v>
+        <v>-110027.97099</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>127048.1315</v>
+        <v>157134.84557</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>178484.42198</v>
+        <v>293048.20863</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>74607.25762999999</v>
+        <v>61589.31685000001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>168453.64551</v>
+        <v>-44708.65869</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>117957.70193</v>
+        <v>112110.831</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>86912.41222999999</v>
+        <v>194734.61668</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-182125.27844</v>
+        <v>-552778.0059499999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>355217.01141</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>241697.42816</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>428863.367</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>20033.48035</v>
+        <v>22874.41008</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>24795.35224</v>
+        <v>28689.08135</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>27396.54946</v>
+        <v>31621.59205</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>30378.69051</v>
+        <v>40598.29175</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>49733.00238000001</v>
+        <v>61030.79157</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>48343.56787000001</v>
+        <v>68662.30958</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>43371.1395</v>
+        <v>60429.83621</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>53702.62379000001</v>
+        <v>77922.65115999999</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>52392.57357</v>
+        <v>78344.75235</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>111301.28117</v>
+        <v>117742.85041</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>123697.87546</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>145011.76399</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>174327.331</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>68285.75940000001</v>
+        <v>52898.7525</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>83327.25543999999</v>
+        <v>97860.44529999999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-32072.81973</v>
+        <v>-141649.56304</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>96669.44098999999</v>
+        <v>116536.55382</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>128751.4196</v>
+        <v>232017.41706</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>26263.68976</v>
+        <v>-7072.992730000004</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>125082.50601</v>
+        <v>-105138.4949</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>64255.07814</v>
+        <v>34188.17983999999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>34519.83865999999</v>
+        <v>116389.86433</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-293426.55961</v>
+        <v>-670520.8563599999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>231519.13595</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>96685.66417</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>254536.036</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1250</v>
+        <v>1219</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1448</v>
+        <v>1394</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1644</v>
+        <v>1583</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1901</v>
+        <v>1838</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2302</v>
+        <v>2006</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2314</v>
+        <v>1945</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2430</v>
+        <v>2055</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2580</v>
+        <v>2103</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>2850</v>
+        <v>2341</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2688</v>
+        <v>2108</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2565</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1936</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>